--- a/OLS/SIS/Input and Constants/sis_in_noise.xlsx
+++ b/OLS/SIS/Input and Constants/sis_in_noise.xlsx
@@ -220,14 +220,14 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.71"/>
@@ -252,12 +252,12 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -300,12 +300,12 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -316,12 +316,12 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -364,12 +364,12 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
@@ -394,12 +394,12 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>28</v>
